--- a/biology/Virologie/Marseilleviridae/Marseilleviridae.xlsx
+++ b/biology/Virologie/Marseilleviridae/Marseilleviridae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marseilleviridae est une famille  de virus géants décrite en 2012[1]. Le génome de ces virus est de l'ADN double brins.
-Des amibes en sont souvent les hôtes mais il existe des preuves de leur découverte parmi des humains[2],[3],[4],[5]. 
-En 2016, le Comité international de taxonomie des virus reconnaît quatre espèces de cette famille divisés en deux genres[6],[7], dont Marseillevirus et un non-assigné (Unassigned Marseilleviridae).
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marseilleviridae est une famille  de virus géants décrite en 2012. Le génome de ces virus est de l'ADN double brins.
+Des amibes en sont souvent les hôtes mais il existe des preuves de leur découverte parmi des humains. 
+En 2016, le Comité international de taxonomie des virus reconnaît quatre espèces de cette famille divisés en deux genres dont Marseillevirus et un non-assigné (Unassigned Marseilleviridae).
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Basée sur la taxonomie du  Comité Internationale de Taxonomie des Virus :
 </t>
